--- a/output/pueblos hermanos.xlsx
+++ b/output/pueblos hermanos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -633,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +651,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,10 +760,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -853,15 +871,24 @@
         <v>0.6859170098944278</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>75790</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -960,15 +987,24 @@
         <v>0.6859170098944278</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>22178</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1067,15 +1103,24 @@
         <v>0.6859170098944278</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>37825</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1174,15 +1219,24 @@
         <v>0.6859170098944278</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>14600</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1281,15 +1335,24 @@
         <v>0.6859170098944278</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>26265</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1388,15 +1451,24 @@
         <v>0.6859170098944278</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>31663</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1495,15 +1567,24 @@
         <v>0.6859170098944278</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1602,15 +1683,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>13113</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1709,15 +1799,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1816,15 +1915,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>38042</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1923,15 +2031,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>38535</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2030,15 +2147,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>15230</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2137,15 +2263,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>30898</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2244,15 +2379,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>18913</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2351,15 +2495,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>7300</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2458,15 +2611,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>25772</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2565,15 +2727,24 @@
         <v>0.7735060821031549</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2672,15 +2843,24 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>52812</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2779,15 +2959,24 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2886,15 +3075,24 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>132023</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2993,15 +3191,24 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3100,15 +3307,24 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>6591</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3207,15 +3423,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>1335.875</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3314,15 +3539,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>26778.08</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3421,15 +3655,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3528,15 +3771,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>1750</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3635,15 +3887,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3742,15 +4003,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>3350</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3849,15 +4119,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>4871.35</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3956,15 +4235,24 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>3500</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4063,15 +4351,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>1335.875</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4170,15 +4467,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>26778.08</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4277,15 +4583,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>2600</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4384,15 +4699,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>1750</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4491,15 +4815,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4598,15 +4931,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>3350</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4705,15 +5047,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>4871.35</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4812,15 +5163,24 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>3500</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4919,15 +5279,24 @@
         <v>1</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>1500</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5026,15 +5395,24 @@
         <v>1</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>6902.075</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5133,15 +5511,24 @@
         <v>1</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>6000</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5240,15 +5627,24 @@
         <v>1</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>38953.005</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5347,15 +5743,24 @@
         <v>1</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5454,15 +5859,24 @@
         <v>1</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>4750</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5561,15 +5975,24 @@
         <v>1</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5668,15 +6091,24 @@
         <v>1</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>6902.075</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5775,15 +6207,24 @@
         <v>1</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5882,15 +6323,24 @@
         <v>1</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>38953.005</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5989,21 +6439,30 @@
         <v>1</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6096,15 +6555,24 @@
         <v>1</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>4750</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6203,15 +6671,24 @@
         <v>1</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>14215</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6310,15 +6787,24 @@
         <v>1</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>14215</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6417,15 +6903,24 @@
         <v>1</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>14215</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6524,21 +7019,30 @@
         <v>1</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>14215</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -6631,15 +7135,24 @@
         <v>1</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>28430</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6738,9 +7251,18 @@
         <v>1</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>14215</v>
       </c>
     </row>

--- a/output/pueblos hermanos.xlsx
+++ b/output/pueblos hermanos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -642,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +657,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,10 +775,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -829,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>231818</v>
+        <v>232831</v>
       </c>
       <c r="U2">
         <v>4</v>
@@ -865,30 +877,36 @@
         <v>2565774</v>
       </c>
       <c r="AG2">
-        <v>337968</v>
+        <v>338981</v>
       </c>
       <c r="AH2">
-        <v>0.6859170098944278</v>
+        <v>0.6868556054764131</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>1986</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>75790</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -945,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>231818</v>
+        <v>232831</v>
       </c>
       <c r="U3">
         <v>4</v>
@@ -981,30 +999,36 @@
         <v>4266738</v>
       </c>
       <c r="AG3">
-        <v>337968</v>
+        <v>338981</v>
       </c>
       <c r="AH3">
-        <v>0.6859170098944278</v>
+        <v>0.6868556054764131</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>1986</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>22178</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1061,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>231818</v>
+        <v>232831</v>
       </c>
       <c r="U4">
         <v>4</v>
@@ -1097,30 +1121,36 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>337968</v>
+        <v>338981</v>
       </c>
       <c r="AH4">
-        <v>0.6859170098944278</v>
+        <v>0.6868556054764131</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1986</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>37825</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1177,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>231818</v>
+        <v>232831</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1213,30 +1243,36 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>337968</v>
+        <v>338981</v>
       </c>
       <c r="AH5">
-        <v>0.6859170098944278</v>
+        <v>0.6868556054764131</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1986</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>14600</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1293,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>231818</v>
+        <v>232831</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1329,30 +1365,36 @@
         <v>1336135</v>
       </c>
       <c r="AG6">
-        <v>337968</v>
+        <v>338981</v>
       </c>
       <c r="AH6">
-        <v>0.6859170098944278</v>
+        <v>0.6868556054764131</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1986</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>26265</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1409,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>231818</v>
+        <v>232831</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1445,30 +1487,36 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>337968</v>
+        <v>338981</v>
       </c>
       <c r="AH7">
-        <v>0.6859170098944278</v>
+        <v>0.6868556054764131</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>1986</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>31663</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1525,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>231818</v>
+        <v>232831</v>
       </c>
       <c r="U8">
         <v>4</v>
@@ -1561,30 +1609,36 @@
         <v>366584</v>
       </c>
       <c r="AG8">
-        <v>337968</v>
+        <v>338981</v>
       </c>
       <c r="AH8">
-        <v>0.6859170098944278</v>
+        <v>0.6868556054764131</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1986</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1641,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U9">
         <v>4</v>
@@ -1677,30 +1731,36 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH9">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1986</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>13113</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1757,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U10">
         <v>4</v>
@@ -1793,30 +1853,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH10">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>1986</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1873,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U11">
         <v>4</v>
@@ -1909,30 +1975,36 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH11">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>1986</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>38042</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1989,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2025,30 +2097,36 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH12">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1986</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>38535</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2105,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U13">
         <v>4</v>
@@ -2141,30 +2219,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG13">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH13">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>1986</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>15230</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2221,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U14">
         <v>4</v>
@@ -2257,30 +2341,36 @@
         <v>38993399</v>
       </c>
       <c r="AG14">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH14">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1986</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>30898</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2337,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U15">
         <v>4</v>
@@ -2373,30 +2463,36 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH15">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>1986</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>18913</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2453,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U16">
         <v>4</v>
@@ -2489,30 +2585,36 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH16">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1986</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>7300</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2569,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U17">
         <v>4</v>
@@ -2605,30 +2707,36 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH17">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1986</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>25772</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2685,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>184598</v>
+        <v>193674</v>
       </c>
       <c r="U18">
         <v>4</v>
@@ -2721,30 +2829,36 @@
         <v>9934803.333333334</v>
       </c>
       <c r="AG18">
-        <v>238651</v>
+        <v>247727</v>
       </c>
       <c r="AH18">
-        <v>0.7735060821031549</v>
+        <v>0.781804163454125</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1986</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2843,24 +2957,30 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1986</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>52812</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2959,24 +3079,30 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1986</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3075,24 +3201,30 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1986</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>132023</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3191,24 +3323,30 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1986</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3307,24 +3445,30 @@
         <v>0.5283330479178701</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1986</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>6591</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3423,24 +3567,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1986</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>1335.875</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3539,24 +3689,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1986</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>26778.08</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3655,24 +3811,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1986</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3771,24 +3933,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1986</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>1750</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3887,24 +4055,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1986</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4003,24 +4177,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1986</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>3350</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4119,24 +4299,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>1986</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>4871.35</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4235,24 +4421,30 @@
         <v>0.4969074928826182</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1986</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>3500</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4351,24 +4543,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1986</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>1335.875</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4467,24 +4665,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1986</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>26778.08</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4583,24 +4787,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1986</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>2600</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4699,24 +4909,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1986</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>1750</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4815,24 +5031,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1986</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4931,24 +5153,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1986</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>3350</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5047,24 +5275,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1986</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>4871.35</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5163,24 +5397,30 @@
         <v>0.5203723697582352</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1986</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>3500</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5279,24 +5519,30 @@
         <v>1</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1986</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>1500</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5395,24 +5641,30 @@
         <v>1</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1986</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>6902.075</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5511,24 +5763,30 @@
         <v>1</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1986</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>6000</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5627,24 +5885,30 @@
         <v>1</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1986</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>38953.005</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5743,24 +6007,30 @@
         <v>1</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1986</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5859,24 +6129,30 @@
         <v>1</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1986</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>4750</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5975,24 +6251,30 @@
         <v>1</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1986</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6091,24 +6373,30 @@
         <v>1</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1986</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>6902.075</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6207,24 +6495,30 @@
         <v>1</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1986</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6323,24 +6617,30 @@
         <v>1</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1986</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>38953.005</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6439,30 +6739,36 @@
         <v>1</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1986</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6555,24 +6861,30 @@
         <v>1</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1986</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>4750</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6671,24 +6983,30 @@
         <v>1</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1986</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>14215</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6787,24 +7105,30 @@
         <v>1</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1986</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>14215</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6903,24 +7227,30 @@
         <v>1</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1986</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>14215</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7019,30 +7349,36 @@
         <v>1</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1986</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>14215</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7135,24 +7471,30 @@
         <v>1</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1986</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>28430</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7251,18 +7593,24 @@
         <v>1</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1986</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>14215</v>
       </c>
     </row>

--- a/output/pueblos hermanos.xlsx
+++ b/output/pueblos hermanos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>2015_venezuela</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2016_bolivia</t>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -912,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1034,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3680</v>
+        <v>4132.902312418774</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1278,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1522,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1644,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>420</v>
+        <v>471.9591970298227</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1766,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1888,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>910</v>
+        <v>892.5687203369533</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2010,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2132,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2254,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2376,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2498,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4340</v>
+        <v>4550.453595838572</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2620,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2742,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2864,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2986,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3108,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3230,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5050</v>
+        <v>4961.234688573883</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3352,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3474,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3596,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3718,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3840,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>12710</v>
+        <v>14735.09353649063</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3962,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>5930</v>
+        <v>5325.160106166602</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4084,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4206,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4328,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1540</v>
+        <v>1443.492614888721</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4450,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4572,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4694,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4816,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>11970</v>
+        <v>14721.85595470026</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4938,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>6770</v>
+        <v>5710.587873377512</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5060,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5182,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5304,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1720</v>
+        <v>1505.810948829135</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5426,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5548,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5670,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>7500</v>
+        <v>6103.590270484282</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5792,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5914,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6036,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>13080</v>
+        <v>14025.35756477021</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6158,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6280,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6402,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>7910</v>
+        <v>6500.281937297324</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6524,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6646,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6767,8 +6764,8 @@
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" t="s">
-        <v>91</v>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6884,13 +6881,13 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7006,13 +7003,13 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7128,13 +7125,13 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>8210</v>
+        <v>6907.962010581965</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7250,13 +7247,13 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7372,13 +7369,13 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" t="s">
-        <v>91</v>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7494,13 +7491,13 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2080</v>
+        <v>1752.531946133768</v>
       </c>
       <c r="D57">
         <v>0</v>

--- a/output/pueblos hermanos.xlsx
+++ b/output/pueblos hermanos.xlsx
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1335.875</v>
+        <v>4000</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>26778.08</v>
+        <v>52812</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2600</v>
+        <v>132023</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3350</v>
+        <v>6591</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4871.35</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>86</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>956.659691840205</v>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>6902.075</v>
+        <v>26778.08</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>38953.005</v>
+        <v>1335.875</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>500</v>
+        <v>3350</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6765,13 +6765,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>13137</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>4750</v>
+        <v>1750</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>10984</v>
       </c>
       <c r="D56">
         <v>0</v>
